--- a/Benchmarks/BugfindingResults.xlsx
+++ b/Benchmarks/BugfindingResults.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t-sumukh\source\repos\p-org\rl\oopsla\artifact\psharp-ql\Benchmarks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A2EB3F62-7EF3-435F-BEFB-055FA878D88C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BC73808-8234-40E3-89AF-B5A31B3D2C7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BugfindingResults" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Benchmark</t>
   </si>
@@ -82,13 +82,28 @@
     <t>LargestInbox</t>
   </si>
   <si>
-    <t>RTC</t>
+    <t>PRTC-3</t>
+  </si>
+  <si>
+    <t>PRTC-10</t>
+  </si>
+  <si>
+    <t>PRTC-30</t>
+  </si>
+  <si>
+    <t>PRTCD-3</t>
+  </si>
+  <si>
+    <t>PRTCD-10</t>
+  </si>
+  <si>
+    <t>PRTCD-30</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -922,11 +937,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+      <selection activeCell="J1" sqref="J1:P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -935,7 +950,7 @@
     <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -969,8 +984,23 @@
       <c r="K1" t="s">
         <v>20</v>
       </c>
+      <c r="L1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1004,8 +1034,23 @@
       <c r="K2">
         <v>0</v>
       </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -1039,8 +1084,23 @@
       <c r="K3">
         <v>0</v>
       </c>
+      <c r="L3">
+        <v>96</v>
+      </c>
+      <c r="M3">
+        <v>100</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>2</v>
+      </c>
+      <c r="P3">
+        <v>17</v>
+      </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -1072,10 +1132,25 @@
         <v>100</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>91</v>
+      </c>
+      <c r="M4">
+        <v>34</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>78</v>
+      </c>
+      <c r="P4">
+        <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -1104,13 +1179,28 @@
         <v>35</v>
       </c>
       <c r="J5">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
+      <c r="L5">
+        <v>9</v>
+      </c>
+      <c r="M5">
+        <v>58</v>
+      </c>
+      <c r="N5">
+        <v>3</v>
+      </c>
+      <c r="O5">
+        <v>17</v>
+      </c>
+      <c r="P5">
+        <v>59</v>
+      </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1144,8 +1234,23 @@
       <c r="K6">
         <v>0</v>
       </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -1174,7 +1279,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -1203,7 +1308,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -1232,7 +1337,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -1261,7 +1366,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
